--- a/Pedidos/DataExcel/Inventario/MovimientoDeInventario.xlsx
+++ b/Pedidos/DataExcel/Inventario/MovimientoDeInventario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaizen\git\AutomatizacionKatalon\Pedidos\DataExcel\Inventario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE3D80E-BB50-44E2-AB2F-AEF2649110E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7783E4E3-F746-40BC-880A-CC092D00FD48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="22428" windowHeight="9036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="56">
   <si>
     <t>Idioma</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Producto</t>
   </si>
   <si>
-    <t>Existencia</t>
+    <t>ExistenciaInicial</t>
   </si>
   <si>
     <t>EnVenta</t>
@@ -76,42 +76,42 @@
     <t>aeHFOx8jV/A=</t>
   </si>
   <si>
+    <t>SalidaDeMercancias</t>
+  </si>
+  <si>
     <t>TransferenciaDeMercancias</t>
   </si>
   <si>
     <t>EntradaDeMercancias</t>
   </si>
   <si>
-    <t>SalidaDeMercancias</t>
+    <t>DispatchOutput</t>
   </si>
   <si>
     <t>DannoProducto</t>
   </si>
   <si>
+    <t>Fabricacion</t>
+  </si>
+  <si>
     <t>EntradaPorFabricacion</t>
   </si>
   <si>
     <t>InitialLoading</t>
   </si>
   <si>
+    <t>CompraProductos</t>
+  </si>
+  <si>
+    <t>VerificaciónCalidad</t>
+  </si>
+  <si>
+    <t>DevolucionProductoCompra</t>
+  </si>
+  <si>
     <t>DevolucionProducto</t>
   </si>
   <si>
-    <t>VerificaciónCalidad</t>
-  </si>
-  <si>
-    <t>CompraProductos</t>
-  </si>
-  <si>
-    <t>DispatchOutput</t>
-  </si>
-  <si>
-    <t>Fabricacion</t>
-  </si>
-  <si>
-    <t>DevolucionProductoCompra</t>
-  </si>
-  <si>
     <t>VentaProducto</t>
   </si>
   <si>
@@ -130,12 +130,6 @@
     <t>2663-909-114</t>
   </si>
   <si>
-    <t>9511-101-140</t>
-  </si>
-  <si>
-    <t>9511-202-111</t>
-  </si>
-  <si>
     <t>9440-303-304</t>
   </si>
   <si>
@@ -151,24 +145,21 @@
     <t>2590-114-102</t>
   </si>
   <si>
+    <t>7781-202-001</t>
+  </si>
+  <si>
     <t>1500-440-055</t>
   </si>
   <si>
+    <t>PV-002</t>
+  </si>
+  <si>
     <t>2663-101-455</t>
   </si>
   <si>
-    <t>PV-002</t>
-  </si>
-  <si>
     <t>ENGINE OIL MINERAL SAE 20W-50 API SN PLUS TRENTONITE PROFESSIONAL 20W-50 API SN PLU</t>
   </si>
   <si>
-    <t>Envase 1/4 Gal - TRENTON5</t>
-  </si>
-  <si>
-    <t>Envase 1 Galon - TRENTON5</t>
-  </si>
-  <si>
     <t>Cap Seal 3/4' TRENTON5</t>
   </si>
   <si>
@@ -184,13 +175,16 @@
     <t>CAJA CARTON TRENTONITE SYN BLEND - 12x1/4</t>
   </si>
   <si>
+    <t>TRENTON 5 LUBERMAX SYNTHETIC BLEND TOP HD FORTIFIED WITH MOLY 10W-40</t>
+  </si>
+  <si>
     <t>TRENTON5 SPINDLE/NEEDLE BEARING LUBRICANT 32</t>
   </si>
   <si>
+    <t>Paleta 4 tambores 55 gal trenton</t>
+  </si>
+  <si>
     <t>Paleta TRENTON 5 TRENTONITE PROFESSIONAL 30</t>
-  </si>
-  <si>
-    <t>Paleta 4 tambores 55 gal trenton</t>
   </si>
   <si>
     <t>NA</t>
@@ -598,12 +592,12 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:P23"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -667,25 +661,25 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
         <v>46</v>
       </c>
       <c r="J2">
-        <v>3574010</v>
+        <v>822309</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -694,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3572288</v>
+        <v>65515</v>
       </c>
       <c r="N2">
         <v>6</v>
       </c>
       <c r="O2">
-        <v>730</v>
+        <v>132490</v>
       </c>
       <c r="P2">
-        <v>3120478</v>
+        <v>41115</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -717,25 +711,25 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
         <v>46</v>
       </c>
       <c r="J3">
-        <v>3574010</v>
+        <v>822309</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -744,16 +738,16 @@
         <v>6</v>
       </c>
       <c r="M3">
-        <v>730</v>
+        <v>132490</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3">
-        <v>3572288</v>
+        <v>65515</v>
       </c>
       <c r="P3">
-        <v>92</v>
+        <v>59886</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -773,7 +767,7 @@
         <v>23</v>
       </c>
       <c r="F4">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -782,10 +776,10 @@
         <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4">
-        <v>50009</v>
+        <v>38045</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -794,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" t="s">
-        <v>57</v>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -823,7 +817,7 @@
         <v>23</v>
       </c>
       <c r="F5">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -832,10 +826,10 @@
         <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5">
-        <v>50009</v>
+        <v>38045</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -844,16 +838,16 @@
         <v>6</v>
       </c>
       <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" t="s">
-        <v>57</v>
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -867,25 +861,25 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J6">
-        <v>762371</v>
+        <v>3574010</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -894,16 +888,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42515</v>
+        <v>451902</v>
       </c>
       <c r="N6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P6">
-        <v>23000</v>
+        <v>341447</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -917,25 +911,25 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J7">
-        <v>762371</v>
+        <v>3574010</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -944,16 +938,16 @@
         <v>6</v>
       </c>
       <c r="M7">
-        <v>95552</v>
+        <v>3121116</v>
       </c>
       <c r="N7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P7">
-        <v>36938</v>
+        <v>1287977</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -967,13 +961,13 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
       </c>
       <c r="F8">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -982,10 +976,10 @@
         <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J8">
-        <v>38045</v>
+        <v>398399</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -994,16 +988,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>6</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
+        <v>32992</v>
+      </c>
+      <c r="N8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" t="s">
+        <v>55</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>11160</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1017,13 +1011,13 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>
       </c>
       <c r="F9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -1032,10 +1026,10 @@
         <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9">
-        <v>38045</v>
+        <v>398399</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1044,16 +1038,16 @@
         <v>6</v>
       </c>
       <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
+        <v>31479</v>
+      </c>
+      <c r="N9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" t="s">
+        <v>55</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>6833</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1067,13 +1061,13 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
       </c>
       <c r="F10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -1082,10 +1076,10 @@
         <v>40</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J10">
-        <v>11955</v>
+        <v>60545</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1094,16 +1088,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4609</v>
+        <v>15</v>
       </c>
       <c r="N10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P10">
-        <v>3348</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1117,13 +1111,13 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
       </c>
       <c r="F11">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -1132,10 +1126,10 @@
         <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J11">
-        <v>11955</v>
+        <v>60545</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1144,16 +1138,16 @@
         <v>6</v>
       </c>
       <c r="M11">
-        <v>7346</v>
+        <v>530</v>
       </c>
       <c r="N11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P11">
-        <v>5904</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1167,13 +1161,13 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
       </c>
       <c r="F12">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -1182,10 +1176,10 @@
         <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J12">
-        <v>576042</v>
+        <v>3899</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1194,16 +1188,16 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>142115</v>
-      </c>
-      <c r="N12" t="s">
-        <v>57</v>
-      </c>
-      <c r="O12" t="s">
-        <v>57</v>
+        <v>495</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <v>3403</v>
       </c>
       <c r="P12">
-        <v>109123</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1217,13 +1211,13 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
       </c>
       <c r="F13">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>
@@ -1232,10 +1226,10 @@
         <v>41</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J13">
-        <v>576042</v>
+        <v>3899</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1244,16 +1238,16 @@
         <v>6</v>
       </c>
       <c r="M13">
-        <v>99999</v>
-      </c>
-      <c r="N13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O13" t="s">
-        <v>57</v>
+        <v>3403</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>495</v>
       </c>
       <c r="P13">
-        <v>68520</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1273,37 +1267,37 @@
         <v>28</v>
       </c>
       <c r="F14">
-        <v>51</v>
+        <v>563</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
         <v>42</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J14">
-        <v>60545</v>
+        <v>660</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>6</v>
-      </c>
-      <c r="O14">
-        <v>544</v>
+        <v>360</v>
+      </c>
+      <c r="N14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" t="s">
+        <v>55</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1323,37 +1317,37 @@
         <v>28</v>
       </c>
       <c r="F15">
-        <v>51</v>
+        <v>563</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
         <v>42</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J15">
-        <v>60545</v>
+        <v>660</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <v>544</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
+        <v>290</v>
+      </c>
+      <c r="N15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" t="s">
+        <v>55</v>
       </c>
       <c r="P15">
-        <v>15</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1373,7 +1367,7 @@
         <v>29</v>
       </c>
       <c r="F16">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="G16" t="s">
         <v>34</v>
@@ -1382,28 +1376,28 @@
         <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J16">
-        <v>769</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>2</v>
       </c>
       <c r="M16">
-        <v>457</v>
+        <v>9</v>
       </c>
       <c r="N16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P16">
-        <v>97</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -1423,7 +1417,7 @@
         <v>29</v>
       </c>
       <c r="F17">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="G17" t="s">
         <v>34</v>
@@ -1432,28 +1426,28 @@
         <v>43</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J17">
-        <v>769</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <v>7</v>
       </c>
       <c r="M17">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="N17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P17">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -1467,25 +1461,25 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
       </c>
       <c r="F18">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="G18" t="s">
         <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J18">
-        <v>1004</v>
+        <v>50</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1494,16 +1488,16 @@
         <v>2</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P18">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -1517,25 +1511,25 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
       </c>
       <c r="F19">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="G19" t="s">
         <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J19">
-        <v>1004</v>
+        <v>50</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1544,16 +1538,16 @@
         <v>7</v>
       </c>
       <c r="M19">
-        <v>185</v>
+        <v>17</v>
       </c>
       <c r="N19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P19">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -1567,25 +1561,25 @@
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
         <v>31</v>
       </c>
       <c r="F20">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="G20" t="s">
         <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J20">
-        <v>50</v>
+        <v>958</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1594,16 +1588,16 @@
         <v>2</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N20">
         <v>7</v>
       </c>
       <c r="O20">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="P20">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -1617,25 +1611,25 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
         <v>31</v>
       </c>
       <c r="F21">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="G21" t="s">
         <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J21">
-        <v>50</v>
+        <v>958</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1644,16 +1638,16 @@
         <v>7</v>
       </c>
       <c r="M21">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="N21">
         <v>2</v>
       </c>
       <c r="O21">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="P21">
-        <v>2</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -1667,25 +1661,25 @@
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F22">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
         <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J22">
-        <v>5992</v>
+        <v>21207</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1694,16 +1688,16 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4865</v>
+        <v>7957</v>
       </c>
       <c r="N22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P22">
-        <v>1373</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -1717,25 +1711,25 @@
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F23">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s">
         <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J23">
-        <v>5992</v>
+        <v>21207</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1744,16 +1738,16 @@
         <v>6</v>
       </c>
       <c r="M23">
-        <v>1127</v>
+        <v>13250</v>
       </c>
       <c r="N23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P23">
-        <v>74</v>
+        <v>9536</v>
       </c>
     </row>
   </sheetData>

--- a/Pedidos/DataExcel/Inventario/MovimientoDeInventario.xlsx
+++ b/Pedidos/DataExcel/Inventario/MovimientoDeInventario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="59">
   <si>
     <t>Idioma</t>
   </si>
@@ -79,42 +79,42 @@
     <t>aeHFOx8jV/A=</t>
   </si>
   <si>
+    <t>SalidaDeMercancias</t>
+  </si>
+  <si>
+    <t>TransferenciaDeMercancias</t>
+  </si>
+  <si>
     <t>EntradaDeMercancias</t>
   </si>
   <si>
-    <t>TransferenciaDeMercancias</t>
-  </si>
-  <si>
-    <t>SalidaDeMercancias</t>
+    <t>DispatchOutput</t>
+  </si>
+  <si>
+    <t>VerificaciónCalidad</t>
+  </si>
+  <si>
+    <t>DevolucionProducto</t>
+  </si>
+  <si>
+    <t>Fabricacion</t>
   </si>
   <si>
     <t>InitialLoading</t>
   </si>
   <si>
-    <t>VerificaciónCalidad</t>
-  </si>
-  <si>
-    <t>DevolucionProducto</t>
-  </si>
-  <si>
-    <t>Fabricacion</t>
+    <t>DannoProducto</t>
+  </si>
+  <si>
+    <t>CompraProductos</t>
+  </si>
+  <si>
+    <t>EntradaPorFabricacion</t>
   </si>
   <si>
     <t>DevolucionProductoCompra</t>
   </si>
   <si>
-    <t>CompraProductos</t>
-  </si>
-  <si>
-    <t>EntradaPorFabricacion</t>
-  </si>
-  <si>
-    <t>DispatchOutput</t>
-  </si>
-  <si>
-    <t>DannoProducto</t>
-  </si>
-  <si>
     <t>VentaProducto</t>
   </si>
   <si>
@@ -133,16 +133,16 @@
     <t>2663-909-114</t>
   </si>
   <si>
-    <t>9511-101-140</t>
-  </si>
-  <si>
     <t>9511-202-111</t>
   </si>
   <si>
+    <t>9440-303-304</t>
+  </si>
+  <si>
     <t>9440-404-382</t>
   </si>
   <si>
-    <t>2590-114-102</t>
+    <t>9440-404-385</t>
   </si>
   <si>
     <t>7781-202-001</t>
@@ -160,22 +160,19 @@
     <t>1200-660-0001</t>
   </si>
   <si>
-    <t>2663-101-455</t>
-  </si>
-  <si>
     <t>ENGINE OIL MINERAL SAE 20W-50 API SN PLUS TRENTONITE PROFESSIONAL 20W-50 API SN PLU</t>
   </si>
   <si>
-    <t>Envase 1/4 Gal - TRENTON5</t>
-  </si>
-  <si>
     <t>Envase 1 Galon - TRENTON5</t>
   </si>
   <si>
+    <t>Cap Seal 3/4' TRENTON5</t>
+  </si>
+  <si>
     <t>Tapa con Foil 38x400 Negro</t>
   </si>
   <si>
-    <t>CAJA CARTON TRENTONITE SYN BLEND - 12x1/4</t>
+    <t>Tapa con Foil 38x400 Rojo</t>
   </si>
   <si>
     <t>TRENTON 5 LUBERMAX SYNTHETIC BLEND TOP HD FORTIFIED WITH MOLY 10W-40</t>
@@ -191,9 +188,6 @@
   </si>
   <si>
     <t>PALETA DE TRENTON5 PREMIUM MULTI-VIS HYDRAULIC OIL 68</t>
-  </si>
-  <si>
-    <t>Paleta TRENTON 5 TRENTONITE PROFESSIONAL 30</t>
   </si>
   <si>
     <t>NA</t>
@@ -645,7 +639,7 @@
         <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2">
         <v>9080901</v>
@@ -660,22 +654,22 @@
         <v>8260285</v>
       </c>
       <c r="N2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P2">
-        <v>7693918</v>
+        <v>6741027</v>
       </c>
       <c r="Q2">
-        <v>15954203</v>
+        <v>1519258</v>
       </c>
       <c r="R2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S2">
-        <v>16774819</v>
+        <v>2339874</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -704,7 +698,7 @@
         <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J3">
         <v>9080901</v>
@@ -719,22 +713,22 @@
         <v>819624</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P3">
-        <v>43101</v>
+        <v>503688</v>
       </c>
       <c r="Q3">
-        <v>862725</v>
+        <v>315936</v>
       </c>
       <c r="R3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S3">
-        <v>9124002</v>
+        <v>8577213</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -754,7 +748,7 @@
         <v>25</v>
       </c>
       <c r="F4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
         <v>36</v>
@@ -763,10 +757,10 @@
         <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J4">
-        <v>18890</v>
+        <v>50005</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -775,25 +769,25 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13519</v>
+        <v>2</v>
       </c>
       <c r="N4">
         <v>6</v>
       </c>
       <c r="O4">
-        <v>3998</v>
+        <v>2</v>
       </c>
       <c r="P4">
-        <v>3642</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>9877</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>7640</v>
+        <v>3</v>
       </c>
       <c r="S4">
-        <v>18890</v>
+        <v>50005</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -813,7 +807,7 @@
         <v>25</v>
       </c>
       <c r="F5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
         <v>36</v>
@@ -822,10 +816,10 @@
         <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J5">
-        <v>18890</v>
+        <v>50005</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -834,25 +828,25 @@
         <v>6</v>
       </c>
       <c r="M5">
-        <v>3998</v>
+        <v>2</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5">
-        <v>13519</v>
+        <v>2</v>
       </c>
       <c r="P5">
-        <v>801</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>3197</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>14320</v>
+        <v>3</v>
       </c>
       <c r="S5">
-        <v>18890</v>
+        <v>50005</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -866,13 +860,13 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
       </c>
       <c r="F6">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
         <v>36</v>
@@ -881,10 +875,10 @@
         <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J6">
-        <v>50005</v>
+        <v>878376</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -893,25 +887,25 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>121263</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>84879</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>206142</v>
       </c>
       <c r="R6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S6">
-        <v>50006</v>
+        <v>963255</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -925,13 +919,13 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
       </c>
       <c r="F7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
@@ -940,10 +934,10 @@
         <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J7">
-        <v>50005</v>
+        <v>878376</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -952,25 +946,25 @@
         <v>6</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>132809</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>119826</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>252635</v>
       </c>
       <c r="R7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S7">
-        <v>50006</v>
+        <v>998202</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -999,7 +993,7 @@
         <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J8">
         <v>38045</v>
@@ -1058,7 +1052,7 @@
         <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9">
         <v>38045</v>
@@ -1108,7 +1102,7 @@
         <v>28</v>
       </c>
       <c r="F10">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -1117,10 +1111,10 @@
         <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J10">
-        <v>60545</v>
+        <v>378176</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1129,25 +1123,25 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15</v>
+        <v>17370</v>
       </c>
       <c r="N10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P10">
-        <v>7</v>
+        <v>16148</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>33518</v>
       </c>
       <c r="R10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S10">
-        <v>60538</v>
+        <v>394324</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1167,7 +1161,7 @@
         <v>28</v>
       </c>
       <c r="F11">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
         <v>36</v>
@@ -1176,10 +1170,10 @@
         <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J11">
-        <v>60545</v>
+        <v>378176</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1188,25 +1182,25 @@
         <v>6</v>
       </c>
       <c r="M11">
-        <v>530</v>
+        <v>26878</v>
       </c>
       <c r="N11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P11">
-        <v>299</v>
+        <v>12476</v>
       </c>
       <c r="Q11">
-        <v>231</v>
+        <v>39354</v>
       </c>
       <c r="R11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S11">
-        <v>60246</v>
+        <v>390652</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1220,7 +1214,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
@@ -1235,7 +1229,7 @@
         <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12">
         <v>3899</v>
@@ -1249,23 +1243,23 @@
       <c r="M12">
         <v>495</v>
       </c>
-      <c r="N12" t="s">
-        <v>60</v>
-      </c>
-      <c r="O12" t="s">
-        <v>60</v>
+      <c r="N12">
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <v>3403</v>
       </c>
       <c r="P12">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="Q12">
-        <v>628</v>
-      </c>
-      <c r="R12" t="s">
-        <v>60</v>
+        <v>329</v>
+      </c>
+      <c r="R12">
+        <v>3569</v>
       </c>
       <c r="S12">
-        <v>4032</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1279,7 +1273,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
@@ -1294,7 +1288,7 @@
         <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J13">
         <v>3899</v>
@@ -1308,23 +1302,23 @@
       <c r="M13">
         <v>3403</v>
       </c>
-      <c r="N13" t="s">
-        <v>60</v>
-      </c>
-      <c r="O13" t="s">
-        <v>60</v>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>495</v>
       </c>
       <c r="P13">
-        <v>2188</v>
+        <v>3039</v>
       </c>
       <c r="Q13">
-        <v>5591</v>
-      </c>
-      <c r="R13" t="s">
-        <v>60</v>
+        <v>364</v>
+      </c>
+      <c r="R13">
+        <v>3534</v>
       </c>
       <c r="S13">
-        <v>6087</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1338,7 +1332,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
@@ -1353,7 +1347,7 @@
         <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14">
         <v>231</v>
@@ -1362,16 +1356,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S14">
         <v>232</v>
@@ -1403,10 +1397,10 @@
         <v>45</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J15">
-        <v>399277</v>
+        <v>399357</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1415,25 +1409,25 @@
         <v>7</v>
       </c>
       <c r="M15">
-        <v>374</v>
+        <v>454</v>
       </c>
       <c r="N15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P15">
-        <v>89</v>
+        <v>441</v>
       </c>
       <c r="Q15">
-        <v>285</v>
+        <v>895</v>
       </c>
       <c r="R15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S15">
-        <v>399188</v>
+        <v>399798</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1462,10 +1456,10 @@
         <v>45</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J16">
-        <v>399277</v>
+        <v>399357</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1477,22 +1471,22 @@
         <v>398703</v>
       </c>
       <c r="N16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P16">
-        <v>337157</v>
+        <v>243939</v>
       </c>
       <c r="Q16">
-        <v>61546</v>
+        <v>642642</v>
       </c>
       <c r="R16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S16">
-        <v>62120</v>
+        <v>643296</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1506,7 +1500,7 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
         <v>32</v>
@@ -1521,10 +1515,10 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J17">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1533,25 +1527,25 @@
         <v>2</v>
       </c>
       <c r="M17">
-        <v>85</v>
-      </c>
-      <c r="N17">
-        <v>7</v>
-      </c>
-      <c r="O17">
-        <v>17</v>
+        <v>103</v>
+      </c>
+      <c r="N17" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" t="s">
+        <v>58</v>
       </c>
       <c r="P17">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="Q17">
-        <v>51</v>
-      </c>
-      <c r="R17">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="R17" t="s">
+        <v>58</v>
       </c>
       <c r="S17">
-        <v>126</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1565,7 +1559,7 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
         <v>32</v>
@@ -1580,10 +1574,10 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1594,23 +1588,23 @@
       <c r="M18">
         <v>17</v>
       </c>
-      <c r="N18">
-        <v>2</v>
-      </c>
-      <c r="O18">
-        <v>85</v>
+      <c r="N18" t="s">
+        <v>58</v>
+      </c>
+      <c r="O18" t="s">
+        <v>58</v>
       </c>
       <c r="P18">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>101</v>
+        <v>3</v>
+      </c>
+      <c r="R18" t="s">
+        <v>58</v>
       </c>
       <c r="S18">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1624,7 +1618,7 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
         <v>33</v>
@@ -1639,10 +1633,10 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1651,25 +1645,25 @@
         <v>2</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="N19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="R19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1683,7 +1677,7 @@
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
         <v>33</v>
@@ -1698,10 +1692,10 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1713,10 +1707,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P20">
         <v>1</v>
@@ -1725,10 +1719,10 @@
         <v>-1</v>
       </c>
       <c r="R20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S20">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1748,19 +1742,19 @@
         <v>34</v>
       </c>
       <c r="F21">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="G21" t="s">
         <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J21">
-        <v>1041</v>
+        <v>144</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1769,25 +1763,25 @@
         <v>2</v>
       </c>
       <c r="M21">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="N21">
         <v>7</v>
       </c>
       <c r="O21">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="P21">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="Q21">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="R21">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="S21">
-        <v>1041</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -1807,19 +1801,19 @@
         <v>34</v>
       </c>
       <c r="F22">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="G22" t="s">
         <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J22">
-        <v>1041</v>
+        <v>144</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1828,25 +1822,25 @@
         <v>7</v>
       </c>
       <c r="M22">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="N22">
         <v>2</v>
       </c>
       <c r="O22">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="P22">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="Q22">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="R22">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="S22">
-        <v>1041</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
